--- a/Huespedes.xlsx
+++ b/Huespedes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="131">
   <si>
     <t>ID Huesped</t>
   </si>
@@ -35,6 +35,21 @@
     <t>ID Reserva</t>
   </si>
   <si>
+    <t>Piero</t>
+  </si>
+  <si>
+    <t>Huancas Ballona</t>
+  </si>
+  <si>
+    <t>1996-05-16</t>
+  </si>
+  <si>
+    <t>peruano-peruana</t>
+  </si>
+  <si>
+    <t>923334982</t>
+  </si>
+  <si>
     <t>Cirilo</t>
   </si>
   <si>
@@ -42,12 +57,6 @@
   </si>
   <si>
     <t>1990-07-10</t>
-  </si>
-  <si>
-    <t>peruano-peruana</t>
-  </si>
-  <si>
-    <t>923334982</t>
   </si>
   <si>
     <t>abel</t>
@@ -440,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -471,7 +480,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>7</v>
@@ -489,12 +498,12 @@
         <v>11</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>12</v>
@@ -512,12 +521,12 @@
         <v>11</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>97.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>15</v>
@@ -532,107 +541,107 @@
         <v>10</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>95.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="E5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>11</v>
-      </c>
       <c r="G5" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="D6" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>26</v>
-      </c>
       <c r="F6" t="s" s="0">
         <v>11</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>70.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="D7" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="E7" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>30</v>
-      </c>
       <c r="F7" t="s" s="0">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="E8" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="F8" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>11</v>
-      </c>
       <c r="G8" t="n" s="0">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>35</v>
@@ -644,87 +653,87 @@
         <v>37</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="B10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="E10" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="F10" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>44</v>
-      </c>
       <c r="G10" t="n" s="0">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="E11" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D11" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s" s="0">
+      <c r="F11" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="F11" t="s" s="0">
-        <v>48</v>
-      </c>
       <c r="G11" t="n" s="0">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="B12" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="D12" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>50</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>47</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>51</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>52</v>
@@ -733,67 +742,67 @@
         <v>53</v>
       </c>
       <c r="D13" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="E13" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>55</v>
-      </c>
       <c r="G13" t="n" s="0">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="B14" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="D14" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="E14" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="E14" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="G14" t="n" s="0">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="B15" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="D15" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="D15" t="s" s="0">
-        <v>42</v>
-      </c>
       <c r="E15" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s" s="0">
         <v>62</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="0">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>63</v>
@@ -802,21 +811,21 @@
         <v>64</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s" s="0">
         <v>65</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>66</v>
@@ -825,21 +834,21 @@
         <v>67</v>
       </c>
       <c r="D17" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="E17" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>11</v>
-      </c>
       <c r="G17" t="n" s="0">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>69</v>
@@ -851,18 +860,18 @@
         <v>71</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s" s="0">
         <v>11</v>
       </c>
       <c r="G18" t="n" s="0">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="0">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>72</v>
@@ -874,64 +883,64 @@
         <v>74</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n" s="0">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="B20" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="E20" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="F20" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="E20" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="F20" t="s" s="0">
-        <v>11</v>
-      </c>
       <c r="G20" t="n" s="0">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="B21" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="D21" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="E21" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="E21" t="s" s="0">
-        <v>10</v>
-      </c>
       <c r="F21" t="s" s="0">
         <v>11</v>
       </c>
       <c r="G21" t="n" s="0">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>84</v>
@@ -946,254 +955,254 @@
         <v>10</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="G22" t="n" s="0">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="0">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="B23" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="D23" t="s" s="0">
         <v>89</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>90</v>
       </c>
       <c r="E23" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G23" t="n" s="0">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="G24" t="n" s="0">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>91</v>
       </c>
       <c r="E25" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="G25" t="n" s="0">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="G26" t="n" s="0">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s" s="0">
         <v>100</v>
       </c>
       <c r="G27" t="n" s="0">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="B28" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="C28" t="s" s="0">
+      <c r="E28" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="D28" t="s" s="0">
+      <c r="F28" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="E28" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s" s="0">
-        <v>104</v>
-      </c>
       <c r="G28" t="n" s="0">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="B29" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="C29" t="s" s="0">
+      <c r="D29" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="D29" t="s" s="0">
-        <v>91</v>
-      </c>
       <c r="E29" t="s" s="0">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G29" t="n" s="0">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G30" t="n" s="0">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s" s="0">
         <v>11</v>
       </c>
       <c r="G31" t="n" s="0">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s" s="0">
         <v>11</v>
       </c>
       <c r="G32" t="n" s="0">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s" s="0">
         <v>10</v>
@@ -1202,213 +1211,236 @@
         <v>11</v>
       </c>
       <c r="G33" t="n" s="0">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s" s="0">
         <v>11</v>
       </c>
       <c r="G34" t="n" s="0">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="F35" t="s" s="0">
         <v>11</v>
       </c>
       <c r="G35" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="G36" t="n" s="0">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="E37" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="F37" t="s" s="0">
-        <v>11</v>
-      </c>
       <c r="G37" t="n" s="0">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="0">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n" s="0">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="0">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G39" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="0">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="G40" t="n" s="0">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="0">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="B41" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="E41" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="C41" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="E41" t="s" s="0">
-        <v>47</v>
-      </c>
       <c r="F41" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G41" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="G42" t="n" s="0">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="0">
         <v>14.0</v>
       </c>
-      <c r="B42" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="C42" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="D42" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="E42" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="F42" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="G42" t="n" s="0">
+      <c r="B43" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="G43" t="n" s="0">
         <v>15.0</v>
       </c>
     </row>
